--- a/Drawing Template.xlsx
+++ b/Drawing Template.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\Ball Sorting Machine\Ball-Sorting-Machine\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\Ball-Machine\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BC2F5D2-CC06-4880-BD42-EDF722FF6BA1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9272352-EBD5-4DE6-98F4-0B34340AF411}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5640" xr2:uid="{B8D5B963-E480-49F6-B855-131168BF2FE1}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
   <si>
     <t>Drawing Template</t>
   </si>
@@ -78,6 +78,54 @@
   </si>
   <si>
     <t>07.03.19</t>
+  </si>
+  <si>
+    <t>BSM.005</t>
+  </si>
+  <si>
+    <t>BSM.006</t>
+  </si>
+  <si>
+    <t>BSM.007</t>
+  </si>
+  <si>
+    <t>BSM.008</t>
+  </si>
+  <si>
+    <t>BSM.009</t>
+  </si>
+  <si>
+    <t>Timing 4 lanes</t>
+  </si>
+  <si>
+    <t>Timing 3 lanes</t>
+  </si>
+  <si>
+    <t>Timing 2 lanes</t>
+  </si>
+  <si>
+    <t>Selection 4 lanes</t>
+  </si>
+  <si>
+    <t>Selection 3 lanes</t>
+  </si>
+  <si>
+    <t>Selection 2 lanes</t>
+  </si>
+  <si>
+    <t>Pancake 4 lanes</t>
+  </si>
+  <si>
+    <t>Pancake 3 lanes</t>
+  </si>
+  <si>
+    <t>BSM.010</t>
+  </si>
+  <si>
+    <t>BSM.011</t>
+  </si>
+  <si>
+    <t>BSM.012</t>
   </si>
 </sst>
 </file>
@@ -455,13 +503,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC0466DF-DAD1-419B-8991-7189A2667059}">
   <dimension ref="B2:J14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="1.88671875" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.3">
@@ -502,6 +551,14 @@
         <v>14</v>
       </c>
     </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="H7" t="s">
+        <v>21</v>
+      </c>
+      <c r="J7" t="s">
+        <v>16</v>
+      </c>
+    </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>5</v>
@@ -509,6 +566,12 @@
       <c r="D8" t="s">
         <v>4</v>
       </c>
+      <c r="H8" t="s">
+        <v>22</v>
+      </c>
+      <c r="J8" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
@@ -517,6 +580,12 @@
       <c r="D9" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="H9" t="s">
+        <v>23</v>
+      </c>
+      <c r="J9" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
@@ -525,18 +594,50 @@
       <c r="D10" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="H10" t="s">
+        <v>24</v>
+      </c>
+      <c r="J10" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B11" s="1"/>
+      <c r="H11" t="s">
+        <v>25</v>
+      </c>
+      <c r="J11" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B12" s="3" t="s">
         <v>12</v>
       </c>
+      <c r="H12" t="s">
+        <v>26</v>
+      </c>
+      <c r="J12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="H13" t="s">
+        <v>27</v>
+      </c>
+      <c r="J13" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>15</v>
+      </c>
+      <c r="H14" t="s">
+        <v>28</v>
+      </c>
+      <c r="J14" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/Drawing Template.xlsx
+++ b/Drawing Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\Ball-Machine\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9272352-EBD5-4DE6-98F4-0B34340AF411}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76DBBA26-BB55-4F9E-BE5F-063F98206E43}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5640" xr2:uid="{B8D5B963-E480-49F6-B855-131168BF2FE1}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="34">
   <si>
     <t>Drawing Template</t>
   </si>
@@ -126,6 +126,12 @@
   </si>
   <si>
     <t>BSM.012</t>
+  </si>
+  <si>
+    <t>Drawings</t>
+  </si>
+  <si>
+    <t>y</t>
   </si>
 </sst>
 </file>
@@ -182,11 +188,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -501,10 +510,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC0466DF-DAD1-419B-8991-7189A2667059}">
-  <dimension ref="B2:J14"/>
+  <dimension ref="B2:K14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -513,12 +522,12 @@
     <col min="7" max="7" width="26.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.3">
       <c r="H3" s="2" t="s">
         <v>10</v>
       </c>
@@ -526,40 +535,55 @@
       <c r="J3" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="K3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.3">
       <c r="H4" t="s">
         <v>6</v>
       </c>
       <c r="J4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="K4" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.3">
       <c r="H5" t="s">
         <v>7</v>
       </c>
       <c r="J5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="K5" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.3">
       <c r="H6" t="s">
         <v>13</v>
       </c>
       <c r="J6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="K6" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.3">
       <c r="H7" t="s">
         <v>21</v>
       </c>
       <c r="J7" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="K7" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>5</v>
       </c>
@@ -572,8 +596,11 @@
       <c r="J8" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="K8" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
         <v>1</v>
       </c>
@@ -586,8 +613,11 @@
       <c r="J9" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="K9" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
         <v>3</v>
       </c>
@@ -600,8 +630,11 @@
       <c r="J10" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="K10" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B11" s="1"/>
       <c r="H11" t="s">
         <v>25</v>
@@ -609,8 +642,11 @@
       <c r="J11" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="K11" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B12" s="3" t="s">
         <v>12</v>
       </c>
@@ -620,16 +656,22 @@
       <c r="J12" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="K12" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.3">
       <c r="H13" t="s">
         <v>27</v>
       </c>
       <c r="J13" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="K13" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>15</v>
       </c>
@@ -638,6 +680,9 @@
       </c>
       <c r="J14" t="s">
         <v>31</v>
+      </c>
+      <c r="K14" s="4" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/Drawing Template.xlsx
+++ b/Drawing Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\Ball-Machine\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76DBBA26-BB55-4F9E-BE5F-063F98206E43}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E089A4BE-2A0A-4CB8-94E9-289AF70432FC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5640" xr2:uid="{B8D5B963-E480-49F6-B855-131168BF2FE1}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
   <si>
     <t>Drawing Template</t>
   </si>
@@ -50,104 +50,18 @@
     <t>Wooden/Plastic</t>
   </si>
   <si>
-    <t>Selection</t>
-  </si>
-  <si>
-    <t>Timing Gate</t>
-  </si>
-  <si>
-    <t>BSM.002</t>
-  </si>
-  <si>
-    <t>BSM.003</t>
-  </si>
-  <si>
-    <t>Top Level Assy</t>
-  </si>
-  <si>
-    <t>BSM.001</t>
-  </si>
-  <si>
     <t>Manage &gt; Styles Editor &gt; View Preferences &gt; Third Angle</t>
   </si>
   <si>
-    <t>Pancake</t>
-  </si>
-  <si>
-    <t>BSM.004</t>
-  </si>
-  <si>
     <t>07.03.19</t>
-  </si>
-  <si>
-    <t>BSM.005</t>
-  </si>
-  <si>
-    <t>BSM.006</t>
-  </si>
-  <si>
-    <t>BSM.007</t>
-  </si>
-  <si>
-    <t>BSM.008</t>
-  </si>
-  <si>
-    <t>BSM.009</t>
-  </si>
-  <si>
-    <t>Timing 4 lanes</t>
-  </si>
-  <si>
-    <t>Timing 3 lanes</t>
-  </si>
-  <si>
-    <t>Timing 2 lanes</t>
-  </si>
-  <si>
-    <t>Selection 4 lanes</t>
-  </si>
-  <si>
-    <t>Selection 3 lanes</t>
-  </si>
-  <si>
-    <t>Selection 2 lanes</t>
-  </si>
-  <si>
-    <t>Pancake 4 lanes</t>
-  </si>
-  <si>
-    <t>Pancake 3 lanes</t>
-  </si>
-  <si>
-    <t>BSM.010</t>
-  </si>
-  <si>
-    <t>BSM.011</t>
-  </si>
-  <si>
-    <t>BSM.012</t>
-  </si>
-  <si>
-    <t>Drawings</t>
-  </si>
-  <si>
-    <t>y</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -188,14 +102,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -510,179 +420,54 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC0466DF-DAD1-419B-8991-7189A2667059}">
-  <dimension ref="B2:K14"/>
+  <dimension ref="B2:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="3" max="3" width="1.88671875" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="H3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="H4" t="s">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B7" s="1"/>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J4" t="s">
-        <v>8</v>
-      </c>
-      <c r="K4" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="H5" t="s">
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
         <v>7</v>
-      </c>
-      <c r="J5" t="s">
-        <v>9</v>
-      </c>
-      <c r="K5" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="H6" t="s">
-        <v>13</v>
-      </c>
-      <c r="J6" t="s">
-        <v>14</v>
-      </c>
-      <c r="K6" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="H7" t="s">
-        <v>21</v>
-      </c>
-      <c r="J7" t="s">
-        <v>16</v>
-      </c>
-      <c r="K7" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" t="s">
-        <v>4</v>
-      </c>
-      <c r="H8" t="s">
-        <v>22</v>
-      </c>
-      <c r="J8" t="s">
-        <v>17</v>
-      </c>
-      <c r="K8" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B9" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H9" t="s">
-        <v>23</v>
-      </c>
-      <c r="J9" t="s">
-        <v>18</v>
-      </c>
-      <c r="K9" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B10" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H10" t="s">
-        <v>24</v>
-      </c>
-      <c r="J10" t="s">
-        <v>19</v>
-      </c>
-      <c r="K10" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B11" s="1"/>
-      <c r="H11" t="s">
-        <v>25</v>
-      </c>
-      <c r="J11" t="s">
-        <v>20</v>
-      </c>
-      <c r="K11" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B12" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H12" t="s">
-        <v>26</v>
-      </c>
-      <c r="J12" t="s">
-        <v>29</v>
-      </c>
-      <c r="K12" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="H13" t="s">
-        <v>27</v>
-      </c>
-      <c r="J13" t="s">
-        <v>30</v>
-      </c>
-      <c r="K13" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B14" t="s">
-        <v>15</v>
-      </c>
-      <c r="H14" t="s">
-        <v>28</v>
-      </c>
-      <c r="J14" t="s">
-        <v>31</v>
-      </c>
-      <c r="K14" s="4" t="s">
-        <v>33</v>
       </c>
     </row>
   </sheetData>
